--- a/shopping/WebContent/META-INF/excelForm/shopping_2019-10-02.xlsx
+++ b/shopping/WebContent/META-INF/excelForm/shopping_2019-10-02.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22122"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\OICE_16_974FA576_32C1D314_AB1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94FB1BDE-A457-478F-AFAA-9351F25970BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23925" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="상품목록" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>상품</t>
   </si>
@@ -49,16 +44,66 @@
   </si>
   <si>
     <t>dlwodyd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄹㅇㄴㄹㅇㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,8 +126,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -396,16 +443,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,8 +471,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -444,10 +494,14 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>